--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-01.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-01.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="344">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/28/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/01/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Active Cases 02-27</t>
+  </si>
+  <si>
+    <t>Active Cases 02-28</t>
   </si>
   <si>
     <t/>
@@ -1236,6 +1239,7 @@
     <col min="78" max="78" width="12.0" customWidth="true"/>
     <col min="79" max="79" width="12.0" customWidth="true"/>
     <col min="80" max="80" width="12.0" customWidth="true"/>
+    <col min="81" max="81" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1489,13 +1493,16 @@
       <c r="CB3" t="s" s="10">
         <v>81</v>
       </c>
+      <c r="CC3" t="s" s="10">
+        <v>82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1730,14 +1737,17 @@
       </c>
       <c r="CB4" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1971,15 +1981,18 @@
         <v>144.0</v>
       </c>
       <c r="CB5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="CC5" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2214,14 +2227,17 @@
       </c>
       <c r="CB6" t="n">
         <v>408.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>358.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2455,15 +2471,18 @@
         <v>29.0</v>
       </c>
       <c r="CB7" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CC7" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2697,15 +2716,18 @@
         <v>1.0</v>
       </c>
       <c r="CB8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2939,15 +2961,18 @@
         <v>2.0</v>
       </c>
       <c r="CB9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC9" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3182,14 +3207,17 @@
       </c>
       <c r="CB10" t="n">
         <v>43.0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3424,14 +3452,17 @@
       </c>
       <c r="CB11" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3665,15 +3696,18 @@
         <v>15.0</v>
       </c>
       <c r="CB12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CC12" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3908,14 +3942,17 @@
       </c>
       <c r="CB13" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4150,14 +4187,17 @@
       </c>
       <c r="CB14" t="n">
         <v>823.0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>835.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4391,15 +4431,18 @@
         <v>0.0</v>
       </c>
       <c r="CB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4633,15 +4676,18 @@
         <v>6.0</v>
       </c>
       <c r="CB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4875,15 +4921,18 @@
         <v>394.0</v>
       </c>
       <c r="CB17" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -5118,14 +5167,17 @@
       </c>
       <c r="CB18" t="n">
         <v>10124.0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>8810.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5360,14 +5412,17 @@
       </c>
       <c r="CB19" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -5601,15 +5656,18 @@
         <v>0.0</v>
       </c>
       <c r="CB20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -5844,14 +5902,17 @@
       </c>
       <c r="CB21" t="n">
         <v>144.0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -6086,14 +6147,17 @@
       </c>
       <c r="CB22" t="n">
         <v>485.0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>487.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6328,14 +6392,17 @@
       </c>
       <c r="CB23" t="n">
         <v>3147.0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>2848.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -6569,15 +6636,18 @@
         <v>708.0</v>
       </c>
       <c r="CB24" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>708.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -6812,14 +6882,17 @@
       </c>
       <c r="CB25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -7053,15 +7126,18 @@
         <v>6.0</v>
       </c>
       <c r="CB26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC26" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -7296,14 +7372,17 @@
       </c>
       <c r="CB27" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -7537,15 +7616,18 @@
         <v>112.0</v>
       </c>
       <c r="CB28" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="CC28" t="n">
         <v>112.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -7780,14 +7862,17 @@
       </c>
       <c r="CB29" t="n">
         <v>232.0</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -8022,14 +8107,17 @@
       </c>
       <c r="CB30" t="n">
         <v>478.0</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>504.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -8264,14 +8352,17 @@
       </c>
       <c r="CB31" t="n">
         <v>536.0</v>
+      </c>
+      <c r="CC31" t="n">
+        <v>565.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -8506,14 +8597,17 @@
       </c>
       <c r="CB32" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -8747,15 +8841,18 @@
         <v>8.0</v>
       </c>
       <c r="CB33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CC33" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -8989,15 +9086,18 @@
         <v>4084.0</v>
       </c>
       <c r="CB34" t="n">
+        <v>4084.0</v>
+      </c>
+      <c r="CC34" t="n">
         <v>4084.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -9231,15 +9331,18 @@
         <v>167.0</v>
       </c>
       <c r="CB35" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="CC35" t="n">
         <v>163.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -9474,14 +9577,17 @@
       </c>
       <c r="CB36" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CC36" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -9716,14 +9822,17 @@
       </c>
       <c r="CB37" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CC37" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -9957,15 +10066,18 @@
         <v>12.0</v>
       </c>
       <c r="CB38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CC38" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -10199,15 +10311,18 @@
         <v>154.0</v>
       </c>
       <c r="CB39" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="CC39" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -10441,15 +10556,18 @@
         <v>0.0</v>
       </c>
       <c r="CB40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -10684,14 +10802,17 @@
       </c>
       <c r="CB41" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CC41" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -10925,15 +11046,18 @@
         <v>2.0</v>
       </c>
       <c r="CB42" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC42" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -11167,15 +11291,18 @@
         <v>9.0</v>
       </c>
       <c r="CB43" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CC43" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -11410,14 +11537,17 @@
       </c>
       <c r="CB44" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -11651,15 +11781,18 @@
         <v>3.0</v>
       </c>
       <c r="CB45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -11894,14 +12027,17 @@
       </c>
       <c r="CB46" t="n">
         <v>1220.0</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>1295.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -12135,15 +12271,18 @@
         <v>4.0</v>
       </c>
       <c r="CB47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC47" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -12378,14 +12517,17 @@
       </c>
       <c r="CB48" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CC48" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -12619,15 +12761,18 @@
         <v>244.0</v>
       </c>
       <c r="CB49" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="CC49" t="n">
         <v>244.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -12861,15 +13006,18 @@
         <v>6.0</v>
       </c>
       <c r="CB50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC50" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -13104,14 +13252,17 @@
       </c>
       <c r="CB51" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -13345,15 +13496,18 @@
         <v>44.0</v>
       </c>
       <c r="CB52" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CC52" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -13588,14 +13742,17 @@
       </c>
       <c r="CB53" t="n">
         <v>583.0</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>588.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -13829,15 +13986,18 @@
         <v>1.0</v>
       </c>
       <c r="CB54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC54" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -14072,14 +14232,17 @@
       </c>
       <c r="CB55" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -14314,14 +14477,17 @@
       </c>
       <c r="CB56" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -14555,15 +14721,18 @@
         <v>28.0</v>
       </c>
       <c r="CB57" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC57" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -14797,15 +14966,18 @@
         <v>13.0</v>
       </c>
       <c r="CB58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CC58" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -15040,14 +15212,17 @@
       </c>
       <c r="CB59" t="n">
         <v>90.0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -15282,14 +15457,17 @@
       </c>
       <c r="CB60" t="n">
         <v>11392.0</v>
+      </c>
+      <c r="CC60" t="n">
+        <v>10347.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -15523,15 +15701,18 @@
         <v>11.0</v>
       </c>
       <c r="CB61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC61" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -15765,15 +15946,18 @@
         <v>49.0</v>
       </c>
       <c r="CB62" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CC62" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -16007,15 +16191,18 @@
         <v>39.0</v>
       </c>
       <c r="CB63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CC63" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -16249,15 +16436,18 @@
         <v>12306.0</v>
       </c>
       <c r="CB64" t="n">
+        <v>12181.0</v>
+      </c>
+      <c r="CC64" t="n">
         <v>12181.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -16491,15 +16681,18 @@
         <v>25.0</v>
       </c>
       <c r="CB65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC65" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -16733,15 +16926,18 @@
         <v>7.0</v>
       </c>
       <c r="CB66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC66" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -16975,15 +17171,18 @@
         <v>25.0</v>
       </c>
       <c r="CB67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CC67" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -17218,14 +17417,17 @@
       </c>
       <c r="CB68" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CC68" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -17459,15 +17661,18 @@
         <v>18.0</v>
       </c>
       <c r="CB69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CC69" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -17701,15 +17906,18 @@
         <v>12.0</v>
       </c>
       <c r="CB70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CC70" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -17944,14 +18152,17 @@
       </c>
       <c r="CB71" t="n">
         <v>1165.0</v>
+      </c>
+      <c r="CC71" t="n">
+        <v>1159.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -18185,15 +18396,18 @@
         <v>0.0</v>
       </c>
       <c r="CB72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -18427,15 +18641,18 @@
         <v>203.0</v>
       </c>
       <c r="CB73" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CC73" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -18670,14 +18887,17 @@
       </c>
       <c r="CB74" t="n">
         <v>6029.0</v>
+      </c>
+      <c r="CC74" t="n">
+        <v>6044.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -18911,15 +19131,18 @@
         <v>25.0</v>
       </c>
       <c r="CB75" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC75" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -19153,15 +19376,18 @@
         <v>129.0</v>
       </c>
       <c r="CB76" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="CC76" t="n">
         <v>130.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -19395,15 +19621,18 @@
         <v>23.0</v>
       </c>
       <c r="CB77" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CC77" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -19638,14 +19867,17 @@
       </c>
       <c r="CB78" t="n">
         <v>179.0</v>
+      </c>
+      <c r="CC78" t="n">
+        <v>180.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -19879,15 +20111,18 @@
         <v>0.0</v>
       </c>
       <c r="CB79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -20122,14 +20357,17 @@
       </c>
       <c r="CB80" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CC80" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -20363,15 +20601,18 @@
         <v>0.0</v>
       </c>
       <c r="CB81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -20606,14 +20847,17 @@
       </c>
       <c r="CB82" t="n">
         <v>10444.0</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>10442.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -20848,14 +21092,17 @@
       </c>
       <c r="CB83" t="n">
         <v>96.0</v>
+      </c>
+      <c r="CC83" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -21090,14 +21337,17 @@
       </c>
       <c r="CB84" t="n">
         <v>146.0</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -21332,14 +21582,17 @@
       </c>
       <c r="CB85" t="n">
         <v>28.0</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -21573,15 +21826,18 @@
         <v>7.0</v>
       </c>
       <c r="CB86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CC86" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -21815,15 +22071,18 @@
         <v>4591.0</v>
       </c>
       <c r="CB87" t="n">
+        <v>4448.0</v>
+      </c>
+      <c r="CC87" t="n">
         <v>4448.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -22057,15 +22316,18 @@
         <v>27.0</v>
       </c>
       <c r="CB88" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC88" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -22300,14 +22562,17 @@
       </c>
       <c r="CB89" t="n">
         <v>39.0</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -22541,15 +22806,18 @@
         <v>0.0</v>
       </c>
       <c r="CB90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -22783,15 +23051,18 @@
         <v>14.0</v>
       </c>
       <c r="CB91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CC91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -23026,14 +23297,17 @@
       </c>
       <c r="CB92" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -23267,15 +23541,18 @@
         <v>51.0</v>
       </c>
       <c r="CB93" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CC93" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -23509,15 +23786,18 @@
         <v>102.0</v>
       </c>
       <c r="CB94" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="CC94" t="n">
         <v>102.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -23751,15 +24031,18 @@
         <v>717.0</v>
       </c>
       <c r="CB95" t="n">
+        <v>714.0</v>
+      </c>
+      <c r="CC95" t="n">
         <v>714.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -23994,14 +24277,17 @@
       </c>
       <c r="CB96" t="n">
         <v>375.0</v>
+      </c>
+      <c r="CC96" t="n">
+        <v>389.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -24236,14 +24522,17 @@
       </c>
       <c r="CB97" t="n">
         <v>132.0</v>
+      </c>
+      <c r="CC97" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -24477,15 +24766,18 @@
         <v>38.0</v>
       </c>
       <c r="CB98" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CC98" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -24720,14 +25012,17 @@
       </c>
       <c r="CB99" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CC99" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -24962,14 +25257,17 @@
       </c>
       <c r="CB100" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CC100" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -25203,15 +25501,18 @@
         <v>35.0</v>
       </c>
       <c r="CB101" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CC101" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -25445,15 +25746,18 @@
         <v>0.0</v>
       </c>
       <c r="CB102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -25687,15 +25991,18 @@
         <v>603.0</v>
       </c>
       <c r="CB103" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="CC103" t="n">
         <v>603.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -25930,14 +26237,17 @@
       </c>
       <c r="CB104" t="n">
         <v>18739.0</v>
+      </c>
+      <c r="CC104" t="n">
+        <v>18730.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -26172,14 +26482,17 @@
       </c>
       <c r="CB105" t="n">
         <v>803.0</v>
+      </c>
+      <c r="CC105" t="n">
+        <v>805.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -26414,14 +26727,17 @@
       </c>
       <c r="CB106" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CC106" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -26655,15 +26971,18 @@
         <v>3.0</v>
       </c>
       <c r="CB107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC107" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -26897,15 +27216,18 @@
         <v>480.0</v>
       </c>
       <c r="CB108" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="CC108" t="n">
         <v>480.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -27140,14 +27462,17 @@
       </c>
       <c r="CB109" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CC109" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -27382,14 +27707,17 @@
       </c>
       <c r="CB110" t="n">
         <v>576.0</v>
+      </c>
+      <c r="CC110" t="n">
+        <v>574.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -27623,15 +27951,18 @@
         <v>1925.0</v>
       </c>
       <c r="CB111" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="CC111" t="n">
         <v>1925.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -27866,14 +28197,17 @@
       </c>
       <c r="CB112" t="n">
         <v>411.0</v>
+      </c>
+      <c r="CC112" t="n">
+        <v>420.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -28107,15 +28441,18 @@
         <v>63.0</v>
       </c>
       <c r="CB113" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CC113" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -28349,15 +28686,18 @@
         <v>61.0</v>
       </c>
       <c r="CB114" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CC114" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -28592,14 +28932,17 @@
       </c>
       <c r="CB115" t="n">
         <v>157.0</v>
+      </c>
+      <c r="CC115" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -28833,15 +29176,18 @@
         <v>62.0</v>
       </c>
       <c r="CB116" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CC116" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -29076,14 +29422,17 @@
       </c>
       <c r="CB117" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CC117" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -29318,14 +29667,17 @@
       </c>
       <c r="CB118" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CC118" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -29559,15 +29911,18 @@
         <v>1328.0</v>
       </c>
       <c r="CB119" t="n">
+        <v>1328.0</v>
+      </c>
+      <c r="CC119" t="n">
         <v>1328.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -29802,14 +30157,17 @@
       </c>
       <c r="CB120" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CC120" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -30044,14 +30402,17 @@
       </c>
       <c r="CB121" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CC121" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -30285,15 +30646,18 @@
         <v>4.0</v>
       </c>
       <c r="CB122" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CC122" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -30527,15 +30891,18 @@
         <v>23.0</v>
       </c>
       <c r="CB123" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CC123" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -30769,15 +31136,18 @@
         <v>32.0</v>
       </c>
       <c r="CB124" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CC124" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -31012,14 +31382,17 @@
       </c>
       <c r="CB125" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -31253,15 +31626,18 @@
         <v>1826.0</v>
       </c>
       <c r="CB126" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="CC126" t="n">
         <v>1823.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -31495,15 +31871,18 @@
         <v>14.0</v>
       </c>
       <c r="CB127" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CC127" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -31738,14 +32117,17 @@
       </c>
       <c r="CB128" t="n">
         <v>41.0</v>
+      </c>
+      <c r="CC128" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -31979,15 +32361,18 @@
         <v>149.0</v>
       </c>
       <c r="CB129" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="CC129" t="n">
         <v>149.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -32221,15 +32606,18 @@
         <v>115.0</v>
       </c>
       <c r="CB130" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="CC130" t="n">
         <v>115.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -32463,15 +32851,18 @@
         <v>23.0</v>
       </c>
       <c r="CB131" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CC131" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -32705,15 +33096,18 @@
         <v>196.0</v>
       </c>
       <c r="CB132" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="CC132" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -32947,15 +33341,18 @@
         <v>63.0</v>
       </c>
       <c r="CB133" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="CC133" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -33189,15 +33586,18 @@
         <v>0.0</v>
       </c>
       <c r="CB134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -33431,15 +33831,18 @@
         <v>0.0</v>
       </c>
       <c r="CB135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -33674,14 +34077,17 @@
       </c>
       <c r="CB136" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CC136" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -33915,15 +34321,18 @@
         <v>5.0</v>
       </c>
       <c r="CB137" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CC137" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -34157,15 +34566,18 @@
         <v>0.0</v>
       </c>
       <c r="CB138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -34399,15 +34811,18 @@
         <v>1.0</v>
       </c>
       <c r="CB139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -34642,14 +35057,17 @@
       </c>
       <c r="CB140" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CC140" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -34883,15 +35301,18 @@
         <v>1.0</v>
       </c>
       <c r="CB141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC141" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -35126,14 +35547,17 @@
       </c>
       <c r="CB142" t="n">
         <v>243.0</v>
+      </c>
+      <c r="CC142" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -35367,15 +35791,18 @@
         <v>36.0</v>
       </c>
       <c r="CB143" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CC143" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -35610,14 +36037,17 @@
       </c>
       <c r="CB144" t="n">
         <v>251.0</v>
+      </c>
+      <c r="CC144" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -35851,15 +36281,18 @@
         <v>12.0</v>
       </c>
       <c r="CB145" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CC145" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -36094,14 +36527,17 @@
       </c>
       <c r="CB146" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CC146" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -36336,14 +36772,17 @@
       </c>
       <c r="CB147" t="n">
         <v>218.0</v>
+      </c>
+      <c r="CC147" t="n">
+        <v>224.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -36578,14 +37017,17 @@
       </c>
       <c r="CB148" t="n">
         <v>147.0</v>
+      </c>
+      <c r="CC148" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -36820,14 +37262,17 @@
       </c>
       <c r="CB149" t="n">
         <v>312.0</v>
+      </c>
+      <c r="CC149" t="n">
+        <v>324.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -37062,14 +37507,17 @@
       </c>
       <c r="CB150" t="n">
         <v>270.0</v>
+      </c>
+      <c r="CC150" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -37303,15 +37751,18 @@
         <v>12.0</v>
       </c>
       <c r="CB151" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC151" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -37545,15 +37996,18 @@
         <v>32.0</v>
       </c>
       <c r="CB152" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="CC152" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -37788,14 +38242,17 @@
       </c>
       <c r="CB153" t="n">
         <v>171.0</v>
+      </c>
+      <c r="CC153" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -38029,15 +38486,18 @@
         <v>0.0</v>
       </c>
       <c r="CB154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -38272,14 +38732,17 @@
       </c>
       <c r="CB155" t="n">
         <v>367.0</v>
+      </c>
+      <c r="CC155" t="n">
+        <v>351.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -38513,15 +38976,18 @@
         <v>5.0</v>
       </c>
       <c r="CB156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CC156" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -38755,15 +39221,18 @@
         <v>25.0</v>
       </c>
       <c r="CB157" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CC157" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -38997,15 +39466,18 @@
         <v>415.0</v>
       </c>
       <c r="CB158" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="CC158" t="n">
         <v>415.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -39239,15 +39711,18 @@
         <v>2.0</v>
       </c>
       <c r="CB159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC159" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -39482,14 +39957,17 @@
       </c>
       <c r="CB160" t="n">
         <v>153.0</v>
+      </c>
+      <c r="CC160" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -39723,15 +40201,18 @@
         <v>108.0</v>
       </c>
       <c r="CB161" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="CC161" t="n">
         <v>110.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -39965,15 +40446,18 @@
         <v>11.0</v>
       </c>
       <c r="CB162" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC162" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -40208,14 +40692,17 @@
       </c>
       <c r="CB163" t="n">
         <v>21.0</v>
+      </c>
+      <c r="CC163" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B164" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -40450,14 +40937,17 @@
       </c>
       <c r="CB164" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CC164" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -40691,15 +41181,18 @@
         <v>1001.0</v>
       </c>
       <c r="CB165" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="CC165" t="n">
         <v>1001.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -40934,14 +41427,17 @@
       </c>
       <c r="CB166" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CC166" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -41176,14 +41672,17 @@
       </c>
       <c r="CB167" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CC167" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -41418,14 +41917,17 @@
       </c>
       <c r="CB168" t="n">
         <v>268.0</v>
+      </c>
+      <c r="CC168" t="n">
+        <v>248.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -41659,15 +42161,18 @@
         <v>26.0</v>
       </c>
       <c r="CB169" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC169" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -41901,15 +42406,18 @@
         <v>64.0</v>
       </c>
       <c r="CB170" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CC170" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -42143,15 +42651,18 @@
         <v>14.0</v>
       </c>
       <c r="CB171" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CC171" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -42385,15 +42896,18 @@
         <v>16.0</v>
       </c>
       <c r="CB172" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CC172" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -42627,15 +43141,18 @@
         <v>22435.0</v>
       </c>
       <c r="CB173" t="n">
+        <v>22435.0</v>
+      </c>
+      <c r="CC173" t="n">
         <v>22435.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -42869,15 +43386,18 @@
         <v>27.0</v>
       </c>
       <c r="CB174" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CC174" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -43111,15 +43631,18 @@
         <v>116.0</v>
       </c>
       <c r="CB175" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="CC175" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -43353,15 +43876,18 @@
         <v>1.0</v>
       </c>
       <c r="CB176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -43596,14 +44122,17 @@
       </c>
       <c r="CB177" t="n">
         <v>272.0</v>
+      </c>
+      <c r="CC177" t="n">
+        <v>273.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -43838,14 +44367,17 @@
       </c>
       <c r="CB178" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CC178" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B179" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -44079,15 +44611,18 @@
         <v>6.0</v>
       </c>
       <c r="CB179" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC179" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -44321,15 +44856,18 @@
         <v>17.0</v>
       </c>
       <c r="CB180" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CC180" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -44564,14 +45102,17 @@
       </c>
       <c r="CB181" t="n">
         <v>1836.0</v>
+      </c>
+      <c r="CC181" t="n">
+        <v>1812.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -44805,15 +45346,18 @@
         <v>10.0</v>
       </c>
       <c r="CB182" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CC182" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -45048,14 +45592,17 @@
       </c>
       <c r="CB183" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CC183" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -45290,14 +45837,17 @@
       </c>
       <c r="CB184" t="n">
         <v>755.0</v>
+      </c>
+      <c r="CC184" t="n">
+        <v>754.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -45531,15 +46081,18 @@
         <v>17.0</v>
       </c>
       <c r="CB185" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CC185" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B186" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -45773,15 +46326,18 @@
         <v>131.0</v>
       </c>
       <c r="CB186" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="CC186" t="n">
         <v>120.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -46015,15 +46571,18 @@
         <v>190.0</v>
       </c>
       <c r="CB187" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="CC187" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -46257,15 +46816,18 @@
         <v>10.0</v>
       </c>
       <c r="CB188" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC188" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -46500,14 +47062,17 @@
       </c>
       <c r="CB189" t="n">
         <v>47.0</v>
+      </c>
+      <c r="CC189" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -46742,14 +47307,17 @@
       </c>
       <c r="CB190" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CC190" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -46983,15 +47551,18 @@
         <v>329.0</v>
       </c>
       <c r="CB191" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="CC191" t="n">
         <v>329.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -47226,14 +47797,17 @@
       </c>
       <c r="CB192" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CC192" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -47467,15 +48041,18 @@
         <v>61.0</v>
       </c>
       <c r="CB193" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CC193" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -47709,15 +48286,18 @@
         <v>398.0</v>
       </c>
       <c r="CB194" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="CC194" t="n">
         <v>398.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B195" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -47952,14 +48532,17 @@
       </c>
       <c r="CB195" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CC195" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -48193,15 +48776,18 @@
         <v>2.0</v>
       </c>
       <c r="CB196" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC196" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B197" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -48435,15 +49021,18 @@
         <v>17.0</v>
       </c>
       <c r="CB197" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CC197" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B198" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -48678,14 +49267,17 @@
       </c>
       <c r="CB198" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CC198" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B199" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -48919,15 +49511,18 @@
         <v>22.0</v>
       </c>
       <c r="CB199" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CC199" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B200" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -49161,15 +49756,18 @@
         <v>1.0</v>
       </c>
       <c r="CB200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -49404,14 +50002,17 @@
       </c>
       <c r="CB201" t="n">
         <v>208.0</v>
+      </c>
+      <c r="CC201" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B202" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -49645,15 +50246,18 @@
         <v>154.0</v>
       </c>
       <c r="CB202" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="CC202" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B203" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -49887,15 +50491,18 @@
         <v>6.0</v>
       </c>
       <c r="CB203" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC203" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B204" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -50129,15 +50736,18 @@
         <v>355.0</v>
       </c>
       <c r="CB204" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="CC204" t="n">
         <v>355.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -50371,15 +50981,18 @@
         <v>0.0</v>
       </c>
       <c r="CB205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B206" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -50614,14 +51227,17 @@
       </c>
       <c r="CB206" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CC206" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B207" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -50856,14 +51472,17 @@
       </c>
       <c r="CB207" t="n">
         <v>187.0</v>
+      </c>
+      <c r="CC207" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -51097,15 +51716,18 @@
         <v>43.0</v>
       </c>
       <c r="CB208" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="CC208" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -51339,15 +51961,18 @@
         <v>63.0</v>
       </c>
       <c r="CB209" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="CC209" t="n">
         <v>61.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B210" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -51582,14 +52207,17 @@
       </c>
       <c r="CB210" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CC210" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -51823,15 +52451,18 @@
         <v>53.0</v>
       </c>
       <c r="CB211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="CC211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -52065,15 +52696,18 @@
         <v>1.0</v>
       </c>
       <c r="CB212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B213" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -52308,14 +52942,17 @@
       </c>
       <c r="CB213" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CC213" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B214" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -52550,14 +53187,17 @@
       </c>
       <c r="CB214" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CC214" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B215" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -52791,15 +53431,18 @@
         <v>1538.0</v>
       </c>
       <c r="CB215" t="n">
+        <v>1537.0</v>
+      </c>
+      <c r="CC215" t="n">
         <v>1537.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -53033,15 +53676,18 @@
         <v>11.0</v>
       </c>
       <c r="CB216" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC216" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B217" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -53276,14 +53922,17 @@
       </c>
       <c r="CB217" t="n">
         <v>79.0</v>
+      </c>
+      <c r="CC217" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B218" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -53517,15 +54166,18 @@
         <v>11.0</v>
       </c>
       <c r="CB218" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC218" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B219" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -53759,15 +54411,18 @@
         <v>2.0</v>
       </c>
       <c r="CB219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC219" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -54001,15 +54656,18 @@
         <v>2.0</v>
       </c>
       <c r="CB220" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CC220" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B221" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -54244,14 +54902,17 @@
       </c>
       <c r="CB221" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CC221" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -54485,15 +55146,18 @@
         <v>14.0</v>
       </c>
       <c r="CB222" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CC222" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B223" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -54728,14 +55392,17 @@
       </c>
       <c r="CB223" t="n">
         <v>16918.0</v>
+      </c>
+      <c r="CC223" t="n">
+        <v>16270.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B224" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -54970,14 +55637,17 @@
       </c>
       <c r="CB224" t="n">
         <v>721.0</v>
+      </c>
+      <c r="CC224" t="n">
+        <v>708.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -55211,15 +55881,18 @@
         <v>0.0</v>
       </c>
       <c r="CB225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -55453,15 +56126,18 @@
         <v>6.0</v>
       </c>
       <c r="CB226" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CC226" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B227" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -55695,15 +56371,18 @@
         <v>0.0</v>
       </c>
       <c r="CB227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B228" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -55938,14 +56617,17 @@
       </c>
       <c r="CB228" t="n">
         <v>374.0</v>
+      </c>
+      <c r="CC228" t="n">
+        <v>375.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B229" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -56180,14 +56862,17 @@
       </c>
       <c r="CB229" t="n">
         <v>214.0</v>
+      </c>
+      <c r="CC229" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -56422,14 +57107,17 @@
       </c>
       <c r="CB230" t="n">
         <v>1419.0</v>
+      </c>
+      <c r="CC230" t="n">
+        <v>1374.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -56664,14 +57352,17 @@
       </c>
       <c r="CB231" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CC231" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B232" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -56905,15 +57596,18 @@
         <v>28.0</v>
       </c>
       <c r="CB232" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CC232" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B233" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -57148,14 +57842,17 @@
       </c>
       <c r="CB233" t="n">
         <v>457.0</v>
+      </c>
+      <c r="CC233" t="n">
+        <v>458.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B234" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -57389,15 +58086,18 @@
         <v>18.0</v>
       </c>
       <c r="CB234" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CC234" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -57631,15 +58331,18 @@
         <v>34.0</v>
       </c>
       <c r="CB235" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CC235" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B236" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -57873,15 +58576,18 @@
         <v>202.0</v>
       </c>
       <c r="CB236" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="CC236" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B237" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -58115,15 +58821,18 @@
         <v>409.0</v>
       </c>
       <c r="CB237" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="CC237" t="n">
         <v>409.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B238" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -58357,15 +59066,18 @@
         <v>325.0</v>
       </c>
       <c r="CB238" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="CC238" t="n">
         <v>291.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -58600,14 +59312,17 @@
       </c>
       <c r="CB239" t="n">
         <v>113.0</v>
+      </c>
+      <c r="CC239" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B240" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -58842,14 +59557,17 @@
       </c>
       <c r="CB240" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CC240" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B241" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -59084,14 +59802,17 @@
       </c>
       <c r="CB241" t="n">
         <v>44.0</v>
+      </c>
+      <c r="CC241" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B242" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -59326,14 +60047,17 @@
       </c>
       <c r="CB242" t="n">
         <v>432.0</v>
+      </c>
+      <c r="CC242" t="n">
+        <v>449.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B243" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -59568,14 +60292,17 @@
       </c>
       <c r="CB243" t="n">
         <v>1157.0</v>
+      </c>
+      <c r="CC243" t="n">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B244" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -59810,14 +60537,17 @@
       </c>
       <c r="CB244" t="n">
         <v>65.0</v>
+      </c>
+      <c r="CC244" t="n">
+        <v>71.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B245" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -60051,15 +60781,18 @@
         <v>11.0</v>
       </c>
       <c r="CB245" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CC245" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B246" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -60293,15 +61026,18 @@
         <v>303.0</v>
       </c>
       <c r="CB246" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="CC246" t="n">
         <v>303.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B247" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -60535,15 +61271,18 @@
         <v>1.0</v>
       </c>
       <c r="CB247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC247" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -60778,14 +61517,17 @@
       </c>
       <c r="CB248" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CC248" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B249" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -61019,15 +61761,18 @@
         <v>915.0</v>
       </c>
       <c r="CB249" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="CC249" t="n">
         <v>915.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B250" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -61262,14 +62007,17 @@
       </c>
       <c r="CB250" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CC250" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B251" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -61503,15 +62251,18 @@
         <v>14.0</v>
       </c>
       <c r="CB251" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CC251" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B252" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -61745,15 +62496,18 @@
         <v>67.0</v>
       </c>
       <c r="CB252" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CC252" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B253" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -61987,15 +62741,18 @@
         <v>305.0</v>
       </c>
       <c r="CB253" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="CC253" t="n">
         <v>305.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B254" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -62229,15 +62986,18 @@
         <v>8.0</v>
       </c>
       <c r="CB254" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CC254" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B255" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -62471,15 +63231,18 @@
         <v>10.0</v>
       </c>
       <c r="CB255" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CC255" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -62714,14 +63477,17 @@
       </c>
       <c r="CB256" t="n">
         <v>52.0</v>
+      </c>
+      <c r="CC256" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B257" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -62956,14 +63722,17 @@
       </c>
       <c r="CB257" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CC257" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B258" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -63043,13 +63812,14 @@
       <c r="BZ258"/>
       <c r="CA258"/>
       <c r="CB258"/>
+      <c r="CC258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B259" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -63129,13 +63899,14 @@
       <c r="BZ259"/>
       <c r="CA259"/>
       <c r="CB259"/>
+      <c r="CC259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B260" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -63215,13 +63986,14 @@
       <c r="BZ260"/>
       <c r="CA260"/>
       <c r="CB260"/>
+      <c r="CC260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B261" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -63301,13 +64073,14 @@
       <c r="BZ261"/>
       <c r="CA261"/>
       <c r="CB261"/>
+      <c r="CC261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B262" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -63387,13 +64160,14 @@
       <c r="BZ262"/>
       <c r="CA262"/>
       <c r="CB262"/>
+      <c r="CC262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B263" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -63473,13 +64247,14 @@
       <c r="BZ263"/>
       <c r="CA263"/>
       <c r="CB263"/>
+      <c r="CC263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B264" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -63559,13 +64334,14 @@
       <c r="BZ264"/>
       <c r="CA264"/>
       <c r="CB264"/>
+      <c r="CC264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B265" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -63645,13 +64421,14 @@
       <c r="BZ265"/>
       <c r="CA265"/>
       <c r="CB265"/>
+      <c r="CC265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B266" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -63731,13 +64508,14 @@
       <c r="BZ266"/>
       <c r="CA266"/>
       <c r="CB266"/>
+      <c r="CC266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B267" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -63817,13 +64595,14 @@
       <c r="BZ267"/>
       <c r="CA267"/>
       <c r="CB267"/>
+      <c r="CC267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B268" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -63903,13 +64682,14 @@
       <c r="BZ268"/>
       <c r="CA268"/>
       <c r="CB268"/>
+      <c r="CC268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B269" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -63989,13 +64769,14 @@
       <c r="BZ269"/>
       <c r="CA269"/>
       <c r="CB269"/>
+      <c r="CC269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B270" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -64075,13 +64856,14 @@
       <c r="BZ270"/>
       <c r="CA270"/>
       <c r="CB270"/>
+      <c r="CC270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B271" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -64161,13 +64943,14 @@
       <c r="BZ271"/>
       <c r="CA271"/>
       <c r="CB271"/>
+      <c r="CC271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B272" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -64247,13 +65030,14 @@
       <c r="BZ272"/>
       <c r="CA272"/>
       <c r="CB272"/>
+      <c r="CC272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B273" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -64333,13 +65117,14 @@
       <c r="BZ273"/>
       <c r="CA273"/>
       <c r="CB273"/>
+      <c r="CC273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B274" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -64419,13 +65204,14 @@
       <c r="BZ274"/>
       <c r="CA274"/>
       <c r="CB274"/>
+      <c r="CC274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B275" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -64505,13 +65291,14 @@
       <c r="BZ275"/>
       <c r="CA275"/>
       <c r="CB275"/>
+      <c r="CC275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B276" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -64591,13 +65378,14 @@
       <c r="BZ276"/>
       <c r="CA276"/>
       <c r="CB276"/>
+      <c r="CC276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B277" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -64677,13 +65465,14 @@
       <c r="BZ277"/>
       <c r="CA277"/>
       <c r="CB277"/>
+      <c r="CC277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B278" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -64763,13 +65552,14 @@
       <c r="BZ278"/>
       <c r="CA278"/>
       <c r="CB278"/>
+      <c r="CC278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B279" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -64849,6 +65639,7 @@
       <c r="BZ279"/>
       <c r="CA279"/>
       <c r="CB279"/>
+      <c r="CC279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
